--- a/Lectures and Assignment 2/problem2.xlsx
+++ b/Lectures and Assignment 2/problem2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC733E0-9ED5-4AE2-BA09-68A64990713F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A88CF3F-E4EA-41CF-88A1-36F1031E93B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="72" windowWidth="11964" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Problem 2" sheetId="13" r:id="rId1"/>
+    <sheet name="Problem 2" sheetId="15" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
@@ -28,6 +28,8 @@
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 2'!$M$56:$W$68</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 2'!$M$69:$W$69</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 2'!$X$56:$X$68</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 2'!$X$56:$X$68</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Problem 2'!$X$56:$X$68</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
@@ -42,9 +44,13 @@
     <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 2'!$M$71:$W$71</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 2'!$Z$56:$Z$68</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Problem 2'!$Z$56:$Z$68</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Problem 2'!$Z$56:$Z$68</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -74,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
   <si>
     <t>Table 1</t>
   </si>
@@ -209,6 +215,9 @@
   </si>
   <si>
     <t>Contraint # All decision variables must be binary</t>
+  </si>
+  <si>
+    <t>ISM-C1004 - Business Analytics 1 - Assignment 2 (Total 36 points)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +554,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,6 +584,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,14 +614,14 @@
       <xdr:rowOff>180810</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4865619" cy="13148329"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
+            <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5603CEE-451E-40C8-BE73-72A459A66783}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -618,7 +629,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="181165" y="509056"/>
+              <a:off x="620780" y="363690"/>
               <a:ext cx="4865619" cy="13148329"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3001,7 +3012,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>344</a:t>
+                <a:t>342</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" b="1">
                 <a:effectLst/>
@@ -3279,13 +3290,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
+            <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5603CEE-451E-40C8-BE73-72A459A66783}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3293,7 +3304,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="181165" y="509056"/>
+              <a:off x="620780" y="363690"/>
               <a:ext cx="4865619" cy="13148329"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4584,7 +4595,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4596,7 +4607,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4608,23 +4619,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>=1</a:t>
+                <a:t>𝑖𝑗 =1</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -4714,11 +4713,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑2_</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑2_𝑗▒𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -4727,42 +4738,6 @@
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4826,7 +4801,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4838,7 +4813,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4850,7 +4825,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5418,7 +5393,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>344</a:t>
+                <a:t>342</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" b="1">
                 <a:effectLst/>
@@ -5709,10 +5684,10 @@
     <xdr:ext cx="4672916" cy="2409506"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
+        <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDE4CCD-26EB-407F-80B9-922DC6A2EBF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5720,7 +5695,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5167144" y="523430"/>
+          <a:off x="5767219" y="365315"/>
           <a:ext cx="4672916" cy="2409506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7278,11 +7253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A9FA5E-E53E-443C-8E0B-D1BDAEB49A17}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y57" sqref="Y57"/>
+    <sheetView tabSelected="1" topLeftCell="L60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7300,6 +7275,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7395,10 +7373,10 @@
       <c r="M21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="32" t="s">
+      <c r="N21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="33"/>
+      <c r="O21" s="32"/>
     </row>
     <row r="22" spans="8:23" x14ac:dyDescent="0.3">
       <c r="L22" s="10" t="s">
@@ -7587,23 +7565,23 @@
     <row r="37" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H37" s="4"/>
       <c r="L37" s="18"/>
-      <c r="M37" s="34" t="s">
+      <c r="M37" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
     </row>
     <row r="38" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H38" s="4"/>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="25" t="s">
         <v>9</v>
       </c>
       <c r="M38" s="18" t="s">
@@ -7642,40 +7620,40 @@
     </row>
     <row r="39" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H39" s="4"/>
-      <c r="L39" s="26" t="s">
+      <c r="L39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="28">
-        <v>100000</v>
-      </c>
-      <c r="N39" s="28">
+      <c r="M39" s="27">
+        <v>100000</v>
+      </c>
+      <c r="N39" s="27">
         <v>32</v>
       </c>
-      <c r="O39" s="28">
-        <v>100000</v>
-      </c>
-      <c r="P39" s="28">
+      <c r="O39" s="27">
+        <v>100000</v>
+      </c>
+      <c r="P39" s="27">
         <v>32</v>
       </c>
-      <c r="Q39" s="28">
-        <v>100000</v>
-      </c>
-      <c r="R39" s="28">
-        <v>100000</v>
-      </c>
-      <c r="S39" s="28">
+      <c r="Q39" s="27">
+        <v>100000</v>
+      </c>
+      <c r="R39" s="27">
+        <v>100000</v>
+      </c>
+      <c r="S39" s="27">
         <v>32</v>
       </c>
-      <c r="T39" s="28">
+      <c r="T39" s="27">
         <v>32</v>
       </c>
-      <c r="U39" s="28">
+      <c r="U39" s="27">
         <v>32</v>
       </c>
-      <c r="V39" s="28">
-        <v>100000</v>
-      </c>
-      <c r="W39" s="28">
+      <c r="V39" s="27">
+        <v>100000</v>
+      </c>
+      <c r="W39" s="27">
         <v>32</v>
       </c>
     </row>
@@ -7684,37 +7662,37 @@
       <c r="L40" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M40" s="28">
-        <v>100000</v>
-      </c>
-      <c r="N40" s="28">
-        <v>34</v>
-      </c>
-      <c r="O40" s="28">
-        <v>100000</v>
-      </c>
-      <c r="P40" s="28">
-        <v>100000</v>
-      </c>
-      <c r="Q40" s="28">
-        <v>100000</v>
-      </c>
-      <c r="R40" s="28">
-        <v>34</v>
-      </c>
-      <c r="S40" s="28">
-        <v>34</v>
-      </c>
-      <c r="T40" s="28">
-        <v>100000</v>
-      </c>
-      <c r="U40" s="28">
-        <v>34</v>
-      </c>
-      <c r="V40" s="28">
-        <v>34</v>
-      </c>
-      <c r="W40" s="28">
+      <c r="M40" s="27">
+        <v>100000</v>
+      </c>
+      <c r="N40" s="27">
+        <v>32</v>
+      </c>
+      <c r="O40" s="27">
+        <v>100000</v>
+      </c>
+      <c r="P40" s="27">
+        <v>100000</v>
+      </c>
+      <c r="Q40" s="27">
+        <v>100000</v>
+      </c>
+      <c r="R40" s="27">
+        <v>32</v>
+      </c>
+      <c r="S40" s="27">
+        <v>32</v>
+      </c>
+      <c r="T40" s="27">
+        <v>100000</v>
+      </c>
+      <c r="U40" s="27">
+        <v>32</v>
+      </c>
+      <c r="V40" s="27">
+        <v>32</v>
+      </c>
+      <c r="W40" s="27">
         <v>100000</v>
       </c>
     </row>
@@ -7733,7 +7711,7 @@
         <v>100000</v>
       </c>
       <c r="P41" s="19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q41" s="19">
         <v>100000</v>
@@ -7745,7 +7723,7 @@
         <v>100000</v>
       </c>
       <c r="T41" s="19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U41" s="19">
         <v>100000</v>
@@ -7754,7 +7732,7 @@
         <v>100000</v>
       </c>
       <c r="W41" s="19">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="8:23" x14ac:dyDescent="0.3">
@@ -7953,10 +7931,10 @@
         <v>23</v>
       </c>
       <c r="M47" s="19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N47" s="19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O47" s="19">
         <v>100000</v>
@@ -7965,19 +7943,19 @@
         <v>100000</v>
       </c>
       <c r="Q47" s="19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R47" s="19">
         <v>100000</v>
       </c>
       <c r="S47" s="19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T47" s="19">
         <v>100000</v>
       </c>
       <c r="U47" s="19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V47" s="19">
         <v>100000</v>
@@ -8152,26 +8130,26 @@
         <v>37</v>
       </c>
       <c r="R53" s="21"/>
-      <c r="X53" s="25">
+      <c r="X53" s="35">
         <f>SUMPRODUCT(M39:W51,M56:W68)</f>
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L54" s="18"/>
-      <c r="M54" s="34" t="s">
+      <c r="M54" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
     </row>
     <row r="55" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L55" s="18" t="s">
@@ -8221,40 +8199,40 @@
       </c>
     </row>
     <row r="56" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L56" s="26" t="s">
+      <c r="L56" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M56" s="27">
-        <v>0</v>
-      </c>
-      <c r="N56" s="27">
-        <v>0</v>
-      </c>
-      <c r="O56" s="27">
-        <v>0</v>
-      </c>
-      <c r="P56" s="27">
+      <c r="M56" s="26">
+        <v>0</v>
+      </c>
+      <c r="N56" s="26">
+        <v>0</v>
+      </c>
+      <c r="O56" s="26">
+        <v>0</v>
+      </c>
+      <c r="P56" s="26">
         <v>1</v>
       </c>
-      <c r="Q56" s="27">
-        <v>0</v>
-      </c>
-      <c r="R56" s="27">
-        <v>0</v>
-      </c>
-      <c r="S56" s="27">
-        <v>0</v>
-      </c>
-      <c r="T56" s="27">
-        <v>0</v>
-      </c>
-      <c r="U56" s="27">
-        <v>0</v>
-      </c>
-      <c r="V56" s="27">
-        <v>0</v>
-      </c>
-      <c r="W56" s="27">
+      <c r="Q56" s="26">
+        <v>0</v>
+      </c>
+      <c r="R56" s="26">
+        <v>0</v>
+      </c>
+      <c r="S56" s="26">
+        <v>0</v>
+      </c>
+      <c r="T56" s="26">
+        <v>0</v>
+      </c>
+      <c r="U56" s="26">
+        <v>0</v>
+      </c>
+      <c r="V56" s="26">
+        <v>0</v>
+      </c>
+      <c r="W56" s="26">
         <v>0</v>
       </c>
       <c r="X56" s="3">
@@ -8264,7 +8242,7 @@
       <c r="Y56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z56" s="30">
+      <c r="Z56" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8272,47 +8250,47 @@
       <c r="L57" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M57" s="27">
-        <v>0</v>
-      </c>
-      <c r="N57" s="27">
+      <c r="M57" s="26">
+        <v>0</v>
+      </c>
+      <c r="N57" s="26">
         <v>1</v>
       </c>
-      <c r="O57" s="27">
-        <v>0</v>
-      </c>
-      <c r="P57" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="27">
-        <v>0</v>
-      </c>
-      <c r="R57" s="27">
-        <v>0</v>
-      </c>
-      <c r="S57" s="27">
-        <v>0</v>
-      </c>
-      <c r="T57" s="27">
-        <v>0</v>
-      </c>
-      <c r="U57" s="27">
-        <v>0</v>
-      </c>
-      <c r="V57" s="27">
-        <v>0</v>
-      </c>
-      <c r="W57" s="27">
+      <c r="O57" s="26">
+        <v>0</v>
+      </c>
+      <c r="P57" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="26">
+        <v>0</v>
+      </c>
+      <c r="R57" s="26">
+        <v>0</v>
+      </c>
+      <c r="S57" s="26">
+        <v>0</v>
+      </c>
+      <c r="T57" s="26">
+        <v>0</v>
+      </c>
+      <c r="U57" s="26">
+        <v>0</v>
+      </c>
+      <c r="V57" s="26">
+        <v>0</v>
+      </c>
+      <c r="W57" s="26">
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <f t="shared" ref="X57:X68" si="0">SUM(M57:W57)</f>
+        <f>SUM(M57:W57)</f>
         <v>1</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z57" s="30">
+      <c r="Z57" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8354,13 +8332,13 @@
         <v>1</v>
       </c>
       <c r="X58" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M58:W58)</f>
         <v>1</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z58" s="30">
+      <c r="Z58" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8402,13 +8380,13 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M59:W59)</f>
         <v>1</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z59" s="30">
+      <c r="Z59" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8450,13 +8428,13 @@
         <v>0</v>
       </c>
       <c r="X60" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M60:W60)</f>
         <v>1</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z60" s="30">
+      <c r="Z60" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8498,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M61:W61)</f>
         <v>0</v>
       </c>
       <c r="Y61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z61" s="30">
+      <c r="Z61" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8546,13 +8524,13 @@
         <v>0</v>
       </c>
       <c r="X62" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M62:W62)</f>
         <v>1</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z62" s="30">
+      <c r="Z62" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8594,13 +8572,13 @@
         <v>0</v>
       </c>
       <c r="X63" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M63:W63)</f>
         <v>1</v>
       </c>
       <c r="Y63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z63" s="30">
+      <c r="Z63" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8642,13 +8620,13 @@
         <v>0</v>
       </c>
       <c r="X64" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M64:W64)</f>
         <v>1</v>
       </c>
       <c r="Y64" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z64" s="30">
+      <c r="Z64" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8690,13 +8668,13 @@
         <v>0</v>
       </c>
       <c r="X65" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M65:W65)</f>
         <v>1</v>
       </c>
       <c r="Y65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z65" s="30">
+      <c r="Z65" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8738,13 +8716,13 @@
         <v>0</v>
       </c>
       <c r="X66" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M66:W66)</f>
         <v>0</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z66" s="30">
+      <c r="Z66" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8786,13 +8764,13 @@
         <v>0</v>
       </c>
       <c r="X67" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M67:W67)</f>
         <v>1</v>
       </c>
       <c r="Y67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z67" s="30">
+      <c r="Z67" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8834,13 +8812,13 @@
         <v>0</v>
       </c>
       <c r="X68" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(M68:W68)</f>
         <v>1</v>
       </c>
       <c r="Y68" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z68" s="30">
+      <c r="Z68" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8853,113 +8831,113 @@
         <v>1</v>
       </c>
       <c r="N69" s="17">
-        <f t="shared" ref="N69:W69" si="1">SUM(N56:N68)</f>
+        <f>SUM(N56:N68)</f>
         <v>1</v>
       </c>
       <c r="O69" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(O56:O68)</f>
         <v>1</v>
       </c>
       <c r="P69" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(P56:P68)</f>
         <v>1</v>
       </c>
       <c r="Q69" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(Q56:Q68)</f>
         <v>1</v>
       </c>
       <c r="R69" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(R56:R68)</f>
         <v>1</v>
       </c>
       <c r="S69" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(S56:S68)</f>
         <v>1</v>
       </c>
       <c r="T69" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(T56:T68)</f>
         <v>1</v>
       </c>
       <c r="U69" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(U56:U68)</f>
         <v>1</v>
       </c>
       <c r="V69" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(V56:V68)</f>
         <v>1</v>
       </c>
       <c r="W69" s="17">
-        <f t="shared" si="1"/>
+        <f>SUM(W56:W68)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="M70" s="29" t="s">
+      <c r="M70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="N70" s="29" t="s">
+      <c r="N70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="O70" s="29" t="s">
+      <c r="O70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="P70" s="29" t="s">
+      <c r="P70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q70" s="29" t="s">
+      <c r="Q70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="R70" s="29" t="s">
+      <c r="R70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="S70" s="29" t="s">
+      <c r="S70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="T70" s="29" t="s">
+      <c r="T70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="U70" s="29" t="s">
+      <c r="U70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="29" t="s">
+      <c r="V70" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="W70" s="29" t="s">
+      <c r="W70" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="71" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="M71" s="30">
+      <c r="M71" s="29">
         <v>1</v>
       </c>
-      <c r="N71" s="30">
+      <c r="N71" s="29">
         <v>1</v>
       </c>
-      <c r="O71" s="30">
+      <c r="O71" s="29">
         <v>1</v>
       </c>
-      <c r="P71" s="30">
+      <c r="P71" s="29">
         <v>1</v>
       </c>
-      <c r="Q71" s="30">
+      <c r="Q71" s="29">
         <v>1</v>
       </c>
-      <c r="R71" s="31">
+      <c r="R71" s="30">
         <v>1</v>
       </c>
-      <c r="S71" s="31">
+      <c r="S71" s="30">
         <v>1</v>
       </c>
-      <c r="T71" s="30">
+      <c r="T71" s="29">
         <v>1</v>
       </c>
-      <c r="U71" s="30">
+      <c r="U71" s="29">
         <v>1</v>
       </c>
-      <c r="V71" s="30">
+      <c r="V71" s="29">
         <v>1</v>
       </c>
-      <c r="W71" s="30">
+      <c r="W71" s="29">
         <v>1</v>
       </c>
     </row>
@@ -8968,11 +8946,11 @@
       <c r="S72" s="17"/>
     </row>
     <row r="73" spans="12:26" x14ac:dyDescent="0.3">
-      <c r="L73" s="35" t="s">
+      <c r="L73" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
